--- a/documenten ToolsForEver/normalisatie. bijlage a.xlsx
+++ b/documenten ToolsForEver/normalisatie. bijlage a.xlsx
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -403,6 +403,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -421,11 +426,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -723,7 +724,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,20 +747,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44"/>
-      <c r="J1" s="43" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49"/>
+      <c r="J1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7"/>
@@ -769,11 +770,11 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
@@ -818,26 +819,26 @@
       <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="45" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="47" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="38" t="s">
@@ -878,7 +879,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="54" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2"/>
